--- a/data/trans_orig/P64D1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P64D1_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>37302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27326</v>
+        <v>26565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50711</v>
+        <v>50175</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1881521136606144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1378336671010987</v>
+        <v>0.1339964532946982</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2557898460513077</v>
+        <v>0.2530859580753398</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -762,19 +762,19 @@
         <v>40394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32314</v>
+        <v>32436</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50159</v>
+        <v>50124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2670198309140826</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.213606117852776</v>
+        <v>0.2144090307223048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3315659083604182</v>
+        <v>0.3313371547684709</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>99</v>
@@ -783,19 +783,19 @@
         <v>77696</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64564</v>
+        <v>64163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94162</v>
+        <v>93755</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2222863426841185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1847147456575343</v>
+        <v>0.1835686331230535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2693929202990333</v>
+        <v>0.2682302533811929</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>160952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147543</v>
+        <v>148079</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>170928</v>
+        <v>171689</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8118478863393856</v>
+        <v>0.8118478863393854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7442101539486925</v>
+        <v>0.7469140419246602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8621663328989013</v>
+        <v>0.8660035467053014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -833,19 +833,19 @@
         <v>110885</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101120</v>
+        <v>101155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118965</v>
+        <v>118843</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7329801690859176</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6684340916395819</v>
+        <v>0.6686628452315291</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7863938821472241</v>
+        <v>0.7855909692776952</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>352</v>
@@ -854,19 +854,19 @@
         <v>271837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>255371</v>
+        <v>255778</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>284969</v>
+        <v>285370</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7777136573158815</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7306070797009664</v>
+        <v>0.7317697466188069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8152852543424657</v>
+        <v>0.8164313668769465</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>52932</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37274</v>
+        <v>36082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70227</v>
+        <v>69351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2110858140787909</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1486425847719887</v>
+        <v>0.1438904756845708</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2800531278484711</v>
+        <v>0.2765618569673683</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -979,19 +979,19 @@
         <v>52506</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42030</v>
+        <v>42135</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63755</v>
+        <v>62699</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3089378886889368</v>
+        <v>0.3089378886889369</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2472985081614121</v>
+        <v>0.2479159739786701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3751256214950326</v>
+        <v>0.3689105540217559</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -1000,19 +1000,19 @@
         <v>105438</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87437</v>
+        <v>86729</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125074</v>
+        <v>127904</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2506149825363543</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2078276334809218</v>
+        <v>0.20614581143172</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2972863245269438</v>
+        <v>0.3040122287697521</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>197830</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>180535</v>
+        <v>181411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>213488</v>
+        <v>214680</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7889141859212091</v>
+        <v>0.7889141859212092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.719946872151529</v>
+        <v>0.7234381430326315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8513574152280113</v>
+        <v>0.8561095243154292</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>137</v>
@@ -1050,19 +1050,19 @@
         <v>117451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106202</v>
+        <v>107258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>127927</v>
+        <v>127822</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6910621113110633</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6248743785049674</v>
+        <v>0.6310894459782441</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7527014918385879</v>
+        <v>0.75208402602133</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>269</v>
@@ -1071,19 +1071,19 @@
         <v>315281</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>295645</v>
+        <v>292815</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>333282</v>
+        <v>333990</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7493850174636457</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.702713675473056</v>
+        <v>0.6959877712302477</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7921723665190781</v>
+        <v>0.7938541885682801</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>37474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28382</v>
+        <v>28138</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50020</v>
+        <v>48401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2526839426754958</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1913778743185605</v>
+        <v>0.1897358389161894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.337286156277827</v>
+        <v>0.3263652441243041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -1196,19 +1196,19 @@
         <v>51819</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42253</v>
+        <v>43153</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61099</v>
+        <v>62035</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4307537483876224</v>
+        <v>0.4307537483876225</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.351229130707146</v>
+        <v>0.3587108216936907</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5078955724457983</v>
+        <v>0.5156744108431849</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -1217,19 +1217,19 @@
         <v>89293</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76088</v>
+        <v>75497</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103461</v>
+        <v>103422</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.332436551177583</v>
+        <v>0.3324365511775831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2832756816770128</v>
+        <v>0.2810751915093363</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3851829760910349</v>
+        <v>0.3850406141729349</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>110828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98282</v>
+        <v>99901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119920</v>
+        <v>120164</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7473160573245042</v>
+        <v>0.7473160573245043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6627138437221733</v>
+        <v>0.6736347558756958</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8086221256814398</v>
+        <v>0.8102641610838106</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -1267,19 +1267,19 @@
         <v>68480</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59200</v>
+        <v>58264</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78046</v>
+        <v>77146</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5692462516123774</v>
+        <v>0.5692462516123775</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4921044275542018</v>
+        <v>0.4843255891568152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.648770869292854</v>
+        <v>0.6412891783063094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>203</v>
@@ -1288,19 +1288,19 @@
         <v>179308</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>165140</v>
+        <v>165179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>192513</v>
+        <v>193104</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6675634488224168</v>
+        <v>0.667563448822417</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6148170239089649</v>
+        <v>0.6149593858270651</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7167243183229868</v>
+        <v>0.7189248084906636</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>54225</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38517</v>
+        <v>38740</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73422</v>
+        <v>73612</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2605861630238389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1851011647095444</v>
+        <v>0.1861703003216157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3528426073934521</v>
+        <v>0.3537550876845935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -1413,19 +1413,19 @@
         <v>61519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48196</v>
+        <v>49905</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75007</v>
+        <v>75248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3447765354907457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2701109023073735</v>
+        <v>0.2796868510190734</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4203710238000855</v>
+        <v>0.4217178505104395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -1434,19 +1434,19 @@
         <v>115744</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96547</v>
+        <v>95897</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>137259</v>
+        <v>140142</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2994513884713313</v>
+        <v>0.2994513884713314</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2497870727672102</v>
+        <v>0.2481039550082147</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3551151137914166</v>
+        <v>0.3625749561696811</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>153863</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>134666</v>
+        <v>134476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>169571</v>
+        <v>169348</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7394138369761611</v>
+        <v>0.739413836976161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6471573926065478</v>
+        <v>0.646244912315407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8148988352904556</v>
+        <v>0.8138296996783844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -1484,19 +1484,19 @@
         <v>116912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>103424</v>
+        <v>103183</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130235</v>
+        <v>128526</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6552234645092545</v>
+        <v>0.6552234645092543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5796289761999145</v>
+        <v>0.5782821494895606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7298890976926264</v>
+        <v>0.7203131489809266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>211</v>
@@ -1505,19 +1505,19 @@
         <v>270775</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>249260</v>
+        <v>246377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>289972</v>
+        <v>290622</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7005486115286688</v>
+        <v>0.7005486115286689</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6448848862085834</v>
+        <v>0.6374250438303188</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7502129272327897</v>
+        <v>0.7518960449917848</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>58924</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48930</v>
+        <v>48948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68879</v>
+        <v>69384</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4381578992287861</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.363839824448031</v>
+        <v>0.3639763561095241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5121861068970597</v>
+        <v>0.5159402125706156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -1630,19 +1630,19 @@
         <v>68033</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59891</v>
+        <v>59382</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>76172</v>
+        <v>75957</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5776179363288564</v>
+        <v>0.5776179363288565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5084933442084268</v>
+        <v>0.504166451347123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6467203484828975</v>
+        <v>0.6448967477765012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>213</v>
@@ -1651,19 +1651,19 @@
         <v>126957</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>115365</v>
+        <v>112097</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141265</v>
+        <v>139749</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.503272155562258</v>
+        <v>0.5032721555622579</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.457321505013139</v>
+        <v>0.4443651730894689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.559991466834669</v>
+        <v>0.5539822817569673</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>75557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65602</v>
+        <v>65097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85551</v>
+        <v>85533</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.561842100771214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4878138931029403</v>
+        <v>0.484059787429384</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.636160175551969</v>
+        <v>0.6360236438904758</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>96</v>
@@ -1701,19 +1701,19 @@
         <v>49749</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41610</v>
+        <v>41825</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57891</v>
+        <v>58400</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4223820636711437</v>
+        <v>0.4223820636711436</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3532796515171025</v>
+        <v>0.3551032522234988</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4915066557915732</v>
+        <v>0.495833548652877</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>190</v>
@@ -1722,19 +1722,19 @@
         <v>125306</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>110998</v>
+        <v>112514</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136898</v>
+        <v>140166</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.496727844437742</v>
+        <v>0.4967278444377419</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.440008533165331</v>
+        <v>0.4460177182430329</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5426784949868609</v>
+        <v>0.5556348269105316</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>39097</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29732</v>
+        <v>30182</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51296</v>
+        <v>48943</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2906039571800236</v>
+        <v>0.2906039571800237</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2209982206356291</v>
+        <v>0.2243402419308144</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3812823672598442</v>
+        <v>0.3637884452998309</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -1847,19 +1847,19 @@
         <v>47084</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39176</v>
+        <v>39165</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55032</v>
+        <v>55080</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5447193230070236</v>
+        <v>0.544719323007024</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4532353179418198</v>
+        <v>0.4531098211613849</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6366729717551435</v>
+        <v>0.6372307150653909</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -1868,19 +1868,19 @@
         <v>86181</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>73696</v>
+        <v>74534</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99130</v>
+        <v>99074</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3900053906953019</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3335052679361992</v>
+        <v>0.3372974562550546</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4486048401878405</v>
+        <v>0.4483536908946359</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>95439</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>83240</v>
+        <v>85593</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>104804</v>
+        <v>104354</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7093960428199763</v>
+        <v>0.7093960428199764</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6187176327401558</v>
+        <v>0.6362115547001691</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7790017793643709</v>
+        <v>0.7756597580691854</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -1918,19 +1918,19 @@
         <v>39353</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31405</v>
+        <v>31357</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47261</v>
+        <v>47272</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4552806769929759</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3633270282448564</v>
+        <v>0.3627692849346086</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5467646820581803</v>
+        <v>0.5468901788386148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>160</v>
@@ -1939,19 +1939,19 @@
         <v>134792</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>121843</v>
+        <v>121899</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>147277</v>
+        <v>146439</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6099946093046982</v>
+        <v>0.6099946093046981</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5513951598121595</v>
+        <v>0.5516463091053641</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6664947320638007</v>
+        <v>0.6627025437449454</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>44245</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31156</v>
+        <v>31440</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61825</v>
+        <v>61601</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.115709317718186</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08147908625927472</v>
+        <v>0.0822232002534643</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1616862646741538</v>
+        <v>0.1610985327133428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>113</v>
@@ -2064,19 +2064,19 @@
         <v>91911</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>76823</v>
+        <v>78031</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>107199</v>
+        <v>108644</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2578476722684697</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2155200070251994</v>
+        <v>0.2189074057739827</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3007350293442481</v>
+        <v>0.304788899763445</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>148</v>
@@ -2085,19 +2085,19 @@
         <v>136156</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115323</v>
+        <v>116075</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>160694</v>
+        <v>158472</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1842848616533851</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1560876603582882</v>
+        <v>0.1571059429336735</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2174965988270798</v>
+        <v>0.2144894239648163</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>338134</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>320554</v>
+        <v>320778</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>351223</v>
+        <v>350939</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8842906822818138</v>
+        <v>0.884290682281814</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.838313735325846</v>
+        <v>0.8389014672866567</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9185209137407253</v>
+        <v>0.9177767997465356</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>328</v>
@@ -2135,19 +2135,19 @@
         <v>264544</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>249256</v>
+        <v>247811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>279632</v>
+        <v>278424</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7421523277315305</v>
+        <v>0.7421523277315302</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6992649706557518</v>
+        <v>0.6952111002365549</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7844799929748005</v>
+        <v>0.7810925942260173</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>601</v>
@@ -2156,19 +2156,19 @@
         <v>602678</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>578140</v>
+        <v>580362</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>623511</v>
+        <v>622759</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8157151383466149</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7825034011729202</v>
+        <v>0.7855105760351837</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8439123396417119</v>
+        <v>0.8428940570663266</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>141554</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>119292</v>
+        <v>121353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163047</v>
+        <v>161650</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3135960304497498</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2642764048363421</v>
+        <v>0.2688419428606756</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3612091415671063</v>
+        <v>0.3581151207174836</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -2281,19 +2281,19 @@
         <v>146061</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>131146</v>
+        <v>130091</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>162797</v>
+        <v>162672</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4697419333287764</v>
+        <v>0.4697419333287765</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4217767655078029</v>
+        <v>0.4183810560074032</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5235681887480065</v>
+        <v>0.5231649417979981</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>288</v>
@@ -2302,19 +2302,19 @@
         <v>287615</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>256338</v>
+        <v>262517</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>313506</v>
+        <v>313567</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3772846484998222</v>
+        <v>0.3772846484998221</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3362560490713521</v>
+        <v>0.3443622971857047</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.41124725144223</v>
+        <v>0.411327826017566</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>309837</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>288344</v>
+        <v>289741</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>332099</v>
+        <v>330038</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6864039695502502</v>
+        <v>0.6864039695502503</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.638790858432894</v>
+        <v>0.6418848792825167</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7357235951636579</v>
+        <v>0.7311580571393247</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>201</v>
@@ -2352,19 +2352,19 @@
         <v>164877</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>148141</v>
+        <v>148266</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>179792</v>
+        <v>180847</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5302580666712235</v>
+        <v>0.5302580666712234</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4764318112519935</v>
+        <v>0.4768350582020017</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5782232344921971</v>
+        <v>0.5816189439925966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>465</v>
@@ -2373,19 +2373,19 @@
         <v>474714</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>448823</v>
+        <v>448762</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>505991</v>
+        <v>499812</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6227153515001778</v>
+        <v>0.6227153515001779</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5887527485577698</v>
+        <v>0.5886721739824341</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6637439509286478</v>
+        <v>0.6556377028142953</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>465752</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>427467</v>
+        <v>424618</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>511117</v>
+        <v>508127</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2440803485889213</v>
+        <v>0.2440803485889212</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.224016769771524</v>
+        <v>0.2225238605193694</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2678539731908481</v>
+        <v>0.2662870415472764</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>776</v>
@@ -2498,19 +2498,19 @@
         <v>559328</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>526093</v>
+        <v>521908</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>592676</v>
+        <v>590484</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3749903532407272</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3527085089881352</v>
+        <v>0.3499028627942268</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3973483701936252</v>
+        <v>0.3958787381713141</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1189</v>
@@ -2519,19 +2519,19 @@
         <v>1025080</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>977107</v>
+        <v>971629</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1082323</v>
+        <v>1080940</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3015143870058419</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2874038432269637</v>
+        <v>0.2857924932545799</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3183516809033611</v>
+        <v>0.3179448902116055</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>1442440</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1397075</v>
+        <v>1400065</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1480725</v>
+        <v>1483574</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7559196514110788</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7321460268091519</v>
+        <v>0.7337129584527237</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.775983230228476</v>
+        <v>0.7774761394806304</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1220</v>
@@ -2569,19 +2569,19 @@
         <v>932251</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>898903</v>
+        <v>901095</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>965486</v>
+        <v>969671</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.625009646759273</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6026516298063749</v>
+        <v>0.6041212618286859</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6472914910118648</v>
+        <v>0.6500971372057732</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2451</v>
@@ -2590,19 +2590,19 @@
         <v>2374691</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2317448</v>
+        <v>2318831</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2422664</v>
+        <v>2428142</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6984856129941581</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.681648319096639</v>
+        <v>0.6820551097883945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7125961567730363</v>
+        <v>0.71420750674542</v>
       </c>
     </row>
     <row r="30">
